--- a/AAII_Financials/Quarterly/BMIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BMIX_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>BMIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +782,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -784,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -796,31 +809,37 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -828,7 +847,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -840,31 +859,37 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,22 +1002,28 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1004,17 +1043,23 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1123,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1081,43 +1134,49 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
       </c>
       <c r="G17" s="3">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
       </c>
       <c r="I17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
-        <v>200</v>
-      </c>
       <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
-        <v>200</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1184,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-400</v>
+        <v>-1300</v>
       </c>
       <c r="F18" s="3">
         <v>-300</v>
       </c>
       <c r="G18" s="3">
-        <v>-1200</v>
+        <v>-400</v>
       </c>
       <c r="H18" s="3">
         <v>-300</v>
       </c>
       <c r="I18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-600</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1217,13 +1284,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,43 +1304,49 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-400</v>
+        <v>-1300</v>
       </c>
       <c r="F21" s="3">
         <v>-300</v>
       </c>
       <c r="G21" s="3">
-        <v>-1100</v>
+        <v>-400</v>
       </c>
       <c r="H21" s="3">
         <v>-300</v>
       </c>
       <c r="I21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,25 +1354,25 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
       </c>
       <c r="G22" s="3">
+        <v>200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>200</v>
+      </c>
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
-        <v>200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>200</v>
-      </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1305,57 +1384,69 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E27" s="3">
-        <v>-600</v>
+        <v>-1900</v>
       </c>
       <c r="F27" s="3">
         <v>-400</v>
       </c>
       <c r="G27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1745,57 +1884,69 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E33" s="3">
-        <v>-600</v>
+        <v>-1900</v>
       </c>
       <c r="F33" s="3">
         <v>-400</v>
       </c>
       <c r="G33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E35" s="3">
-        <v>-600</v>
+        <v>-1900</v>
       </c>
       <c r="F35" s="3">
         <v>-400</v>
       </c>
       <c r="G35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,20 +2138,22 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -1994,13 +2167,13 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
@@ -2009,10 +2182,16 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2129,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
         <v>100</v>
@@ -2141,10 +2332,16 @@
         <v>100</v>
       </c>
       <c r="P44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>100</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2185,18 +2382,24 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
@@ -2214,16 +2417,16 @@
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
+        <v>200</v>
+      </c>
+      <c r="N46" s="3">
         <v>300</v>
-      </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
-      <c r="N46" s="3">
-        <v>200</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
@@ -2231,8 +2434,14 @@
       <c r="P46" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2260,11 +2469,11 @@
       <c r="K47" s="3">
         <v>200</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
+      <c r="L47" s="3">
+        <v>200</v>
+      </c>
+      <c r="M47" s="3">
+        <v>200</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
@@ -2275,13 +2484,19 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -2296,16 +2511,16 @@
         <v>200</v>
       </c>
       <c r="I48" s="3">
+        <v>200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>200</v>
+      </c>
+      <c r="K48" s="3">
         <v>300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>300</v>
-      </c>
-      <c r="K48" s="3">
-        <v>400</v>
-      </c>
-      <c r="L48" s="3">
-        <v>400</v>
       </c>
       <c r="M48" s="3">
         <v>400</v>
@@ -2319,13 +2534,19 @@
       <c r="P48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>400</v>
+      </c>
+      <c r="R48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E49" s="3">
         <v>500</v>
@@ -2343,10 +2564,10 @@
         <v>500</v>
       </c>
       <c r="J49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L49" s="3">
         <v>600</v>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>600</v>
+      </c>
+      <c r="R49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,13 +2784,19 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E54" s="3">
         <v>1000</v>
@@ -2563,28 +2814,34 @@
         <v>1000</v>
       </c>
       <c r="J54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L54" s="3">
         <v>1200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,13 +2878,15 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E57" s="3">
         <v>600</v>
@@ -2634,19 +2895,19 @@
         <v>600</v>
       </c>
       <c r="G57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I57" s="3">
         <v>500</v>
       </c>
       <c r="J57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
@@ -2655,148 +2916,172 @@
         <v>400</v>
       </c>
       <c r="N57" s="3">
+        <v>400</v>
+      </c>
+      <c r="O57" s="3">
+        <v>400</v>
+      </c>
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
-        <v>1100</v>
-      </c>
       <c r="F58" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G58" s="3">
         <v>1100</v>
       </c>
       <c r="H58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>500</v>
+      </c>
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
-        <v>200</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
+        <v>200</v>
+      </c>
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F60" s="3">
         <v>2000</v>
-      </c>
-      <c r="E60" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2300</v>
       </c>
       <c r="G60" s="3">
         <v>2100</v>
       </c>
       <c r="H60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1100</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1000</v>
       </c>
       <c r="P60" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R60" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>200</v>
+      </c>
+      <c r="R62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F66" s="3">
         <v>3700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3600</v>
-      </c>
-      <c r="H66" s="3">
-        <v>3300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>3000</v>
       </c>
       <c r="J66" s="3">
         <v>3300</v>
       </c>
       <c r="K66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M66" s="3">
         <v>3200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2800</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2700</v>
-      </c>
-      <c r="O66" s="3">
-        <v>2500</v>
       </c>
       <c r="P66" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R66" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3207,10 +3542,16 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-51600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-50600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-50200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-49600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-49200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-48600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-48100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-47600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-47300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-46700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-46200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-45900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-45600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-45100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G76" s="3">
         <v>-2700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E81" s="3">
-        <v>-600</v>
+        <v>-1900</v>
       </c>
       <c r="F81" s="3">
         <v>-400</v>
       </c>
       <c r="G81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3637,20 +4034,20 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,37 +4319,43 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-500</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
@@ -3934,10 +4367,16 @@
         <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3974,18 +4415,18 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -3995,11 +4436,17 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>900</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
-        <v>200</v>
-      </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>400</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>200</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4410,50 +4907,62 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BMIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BMIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>BMIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,23 +804,23 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
@@ -821,11 +828,11 @@
         <v>0</v>
       </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
@@ -833,13 +840,16 @@
         <v>0</v>
       </c>
       <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>100</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,23 +857,23 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>-200</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
@@ -871,11 +881,11 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
@@ -883,13 +893,16 @@
         <v>0</v>
       </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,25 +1025,28 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -1049,17 +1069,20 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1134,49 +1161,52 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>300</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
       </c>
       <c r="L17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
-        <v>200</v>
-      </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,49 +1214,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-300</v>
       </c>
       <c r="K18" s="3">
         <v>-300</v>
       </c>
       <c r="L18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,7 +1288,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1290,13 +1324,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,61 +1341,64 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-300</v>
       </c>
       <c r="K21" s="3">
         <v>-300</v>
       </c>
       <c r="L21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="F22" s="3">
-        <v>200</v>
-      </c>
       <c r="G22" s="3">
         <v>200</v>
       </c>
@@ -1366,16 +1406,16 @@
         <v>200</v>
       </c>
       <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="J22" s="3">
-        <v>200</v>
-      </c>
       <c r="K22" s="3">
         <v>200</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1390,63 +1430,69 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-500</v>
       </c>
       <c r="K23" s="3">
         <v>-500</v>
       </c>
       <c r="L23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-500</v>
       </c>
       <c r="K26" s="3">
         <v>-500</v>
       </c>
       <c r="L26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-500</v>
       </c>
       <c r="K27" s="3">
         <v>-500</v>
       </c>
       <c r="L27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,7 +1924,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1890,63 +1960,69 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-500</v>
       </c>
       <c r="K33" s="3">
         <v>-500</v>
       </c>
       <c r="L33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-500</v>
       </c>
       <c r="K35" s="3">
         <v>-500</v>
       </c>
       <c r="L35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,23 +2226,24 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
         <v>200</v>
       </c>
       <c r="F41" s="3">
+        <v>200</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2173,25 +2260,28 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2326,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
         <v>100</v>
@@ -2338,10 +2434,13 @@
         <v>100</v>
       </c>
       <c r="R44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2388,21 +2487,24 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
@@ -2423,25 +2525,28 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
+        <v>200</v>
+      </c>
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
-        <v>200</v>
-      </c>
       <c r="Q46" s="3">
+        <v>200</v>
+      </c>
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2475,8 +2580,8 @@
       <c r="M47" s="3">
         <v>200</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
+      <c r="N47" s="3">
+        <v>200</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2499,7 +2607,7 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
@@ -2517,13 +2625,13 @@
         <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>300</v>
       </c>
       <c r="M48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N48" s="3">
         <v>400</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2549,7 +2660,7 @@
         <v>400</v>
       </c>
       <c r="E49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F49" s="3">
         <v>500</v>
@@ -2570,7 +2681,7 @@
         <v>500</v>
       </c>
       <c r="L49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M49" s="3">
         <v>600</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,16 +2913,19 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E54" s="3">
         <v>900</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1000</v>
       </c>
       <c r="F54" s="3">
         <v>1000</v>
@@ -2820,28 +2946,31 @@
         <v>1000</v>
       </c>
       <c r="L54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M54" s="3">
         <v>1200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1300</v>
       </c>
       <c r="N54" s="3">
         <v>1300</v>
       </c>
       <c r="O54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P54" s="3">
         <v>1100</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1200</v>
       </c>
       <c r="Q54" s="3">
         <v>1200</v>
       </c>
       <c r="R54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2889,7 +3020,7 @@
         <v>700</v>
       </c>
       <c r="E57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F57" s="3">
         <v>600</v>
@@ -2901,7 +3032,7 @@
         <v>600</v>
       </c>
       <c r="I57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J57" s="3">
         <v>500</v>
@@ -2910,7 +3041,7 @@
         <v>500</v>
       </c>
       <c r="L57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
@@ -2922,30 +3053,33 @@
         <v>400</v>
       </c>
       <c r="P57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
       </c>
       <c r="R57" s="3">
+        <v>300</v>
+      </c>
+      <c r="S57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E58" s="3">
         <v>1100</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1000</v>
       </c>
       <c r="F58" s="3">
         <v>1000</v>
       </c>
       <c r="G58" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H58" s="3">
         <v>1100</v>
@@ -2954,134 +3088,143 @@
         <v>1100</v>
       </c>
       <c r="J58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>900</v>
-      </c>
-      <c r="L58" s="3">
-        <v>700</v>
       </c>
       <c r="M58" s="3">
         <v>700</v>
       </c>
       <c r="N58" s="3">
+        <v>700</v>
+      </c>
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>300</v>
       </c>
       <c r="R58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
-        <v>200</v>
-      </c>
       <c r="L59" s="3">
+        <v>200</v>
+      </c>
+      <c r="M59" s="3">
         <v>600</v>
-      </c>
-      <c r="M59" s="3">
-        <v>500</v>
       </c>
       <c r="N59" s="3">
         <v>500</v>
       </c>
       <c r="O59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P59" s="3">
         <v>400</v>
       </c>
       <c r="Q59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,13 +3273,16 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E66" s="3">
         <v>4300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3800</v>
-      </c>
-      <c r="F66" s="3">
-        <v>3700</v>
       </c>
       <c r="G66" s="3">
         <v>3700</v>
       </c>
       <c r="H66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I66" s="3">
         <v>3900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3548,10 +3716,13 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-51600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-51000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-50600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-50200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-49600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-49200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-48600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-48100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-47600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-47300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-46700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-46200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-45900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-45600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-45100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3400</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-2800</v>
       </c>
       <c r="F76" s="3">
         <v>-2800</v>
       </c>
       <c r="G76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="H76" s="3">
         <v>-2700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-500</v>
       </c>
       <c r="K81" s="3">
         <v>-500</v>
       </c>
       <c r="L81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4034,11 +4233,11 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
@@ -4046,11 +4245,11 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,31 +4539,34 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
@@ -4358,7 +4575,7 @@
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
@@ -4373,10 +4590,13 @@
         <v>-200</v>
       </c>
       <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4421,14 +4642,14 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4442,11 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4824,54 +5070,57 @@
         <v>300</v>
       </c>
       <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
-        <v>200</v>
-      </c>
       <c r="H100" s="3">
+        <v>200</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>200</v>
-      </c>
       <c r="Q100" s="3">
         <v>200</v>
       </c>
       <c r="R100" s="3">
+        <v>200</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -4913,49 +5162,52 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>100</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
       <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BMIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BMIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>BMIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,23 +814,23 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
@@ -831,11 +838,11 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
@@ -843,13 +850,16 @@
         <v>0</v>
       </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>100</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,23 +870,23 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>-200</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
@@ -884,11 +894,11 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
         <v>0</v>
       </c>
@@ -896,13 +906,16 @@
         <v>0</v>
       </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,28 +1045,31 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -1072,17 +1092,20 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1164,49 +1191,52 @@
         <v>300</v>
       </c>
       <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
-        <v>200</v>
-      </c>
       <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1217,49 +1247,52 @@
         <v>-300</v>
       </c>
       <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-300</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
       </c>
       <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,11 +1322,11 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1327,13 +1361,16 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,52 +1378,55 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-300</v>
       </c>
       <c r="L21" s="3">
         <v>-300</v>
       </c>
       <c r="M21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,14 +1434,14 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
-        <v>200</v>
-      </c>
       <c r="H22" s="3">
         <v>200</v>
       </c>
@@ -1409,16 +1449,16 @@
         <v>200</v>
       </c>
       <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
-        <v>200</v>
-      </c>
       <c r="L22" s="3">
         <v>200</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1433,13 +1473,16 @@
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1447,52 +1490,55 @@
         <v>-400</v>
       </c>
       <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1800</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-500</v>
       </c>
       <c r="L23" s="3">
         <v>-500</v>
       </c>
       <c r="M23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1606,52 +1658,55 @@
         <v>-400</v>
       </c>
       <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1800</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-500</v>
       </c>
       <c r="L26" s="3">
         <v>-500</v>
       </c>
       <c r="M26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1659,52 +1714,55 @@
         <v>-300</v>
       </c>
       <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-500</v>
       </c>
       <c r="L27" s="3">
         <v>-500</v>
       </c>
       <c r="M27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,11 +1994,11 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1963,13 +2033,16 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1977,52 +2050,55 @@
         <v>-300</v>
       </c>
       <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-500</v>
       </c>
       <c r="L33" s="3">
         <v>-500</v>
       </c>
       <c r="M33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2083,110 +2162,116 @@
         <v>-300</v>
       </c>
       <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-500</v>
       </c>
       <c r="L35" s="3">
         <v>-500</v>
       </c>
       <c r="M35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2236,17 +2323,17 @@
         <v>300</v>
       </c>
       <c r="E41" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F41" s="3">
         <v>200</v>
       </c>
       <c r="G41" s="3">
+        <v>200</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2263,25 +2350,28 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2425,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P44" s="3">
         <v>100</v>
@@ -2437,10 +2533,13 @@
         <v>100</v>
       </c>
       <c r="S44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2490,24 +2589,27 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
-        <v>200</v>
-      </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -2528,25 +2630,28 @@
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
+        <v>200</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
-        <v>200</v>
-      </c>
       <c r="R46" s="3">
+        <v>200</v>
+      </c>
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="S46" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2583,8 +2688,8 @@
       <c r="N47" s="3">
         <v>200</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
+      <c r="O47" s="3">
+        <v>200</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2610,7 +2718,7 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
@@ -2628,13 +2736,13 @@
         <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>300</v>
       </c>
       <c r="N48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O48" s="3">
         <v>400</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2663,7 +2774,7 @@
         <v>400</v>
       </c>
       <c r="F49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G49" s="3">
         <v>500</v>
@@ -2684,7 +2795,7 @@
         <v>500</v>
       </c>
       <c r="M49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N49" s="3">
         <v>600</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2925,10 +3051,10 @@
         <v>1000</v>
       </c>
       <c r="E54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F54" s="3">
         <v>900</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1000</v>
       </c>
       <c r="G54" s="3">
         <v>1000</v>
@@ -2949,28 +3075,31 @@
         <v>1000</v>
       </c>
       <c r="M54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N54" s="3">
         <v>1200</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1300</v>
       </c>
       <c r="O54" s="3">
         <v>1300</v>
       </c>
       <c r="P54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1200</v>
       </c>
       <c r="R54" s="3">
         <v>1200</v>
       </c>
       <c r="S54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3023,7 +3154,7 @@
         <v>700</v>
       </c>
       <c r="F57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G57" s="3">
         <v>600</v>
@@ -3035,7 +3166,7 @@
         <v>600</v>
       </c>
       <c r="J57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K57" s="3">
         <v>500</v>
@@ -3044,7 +3175,7 @@
         <v>500</v>
       </c>
       <c r="M57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
@@ -3056,33 +3187,36 @@
         <v>400</v>
       </c>
       <c r="Q57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
       </c>
       <c r="S57" s="3">
+        <v>300</v>
+      </c>
+      <c r="T57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1000</v>
       </c>
       <c r="G58" s="3">
         <v>1000</v>
       </c>
       <c r="H58" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I58" s="3">
         <v>1100</v>
@@ -3091,34 +3225,37 @@
         <v>1100</v>
       </c>
       <c r="K58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>900</v>
-      </c>
-      <c r="M58" s="3">
-        <v>700</v>
       </c>
       <c r="N58" s="3">
         <v>700</v>
       </c>
       <c r="O58" s="3">
+        <v>700</v>
+      </c>
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>400</v>
-      </c>
-      <c r="R58" s="3">
-        <v>300</v>
       </c>
       <c r="S58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3126,105 +3263,111 @@
         <v>700</v>
       </c>
       <c r="E59" s="3">
+        <v>700</v>
+      </c>
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
-        <v>200</v>
-      </c>
       <c r="M59" s="3">
+        <v>200</v>
+      </c>
+      <c r="N59" s="3">
         <v>600</v>
-      </c>
-      <c r="N59" s="3">
-        <v>500</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
       </c>
       <c r="P59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q59" s="3">
         <v>400</v>
       </c>
       <c r="R59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3285,7 +3431,7 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>200</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E66" s="3">
         <v>4500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3800</v>
-      </c>
-      <c r="G66" s="3">
-        <v>3700</v>
       </c>
       <c r="H66" s="3">
         <v>3700</v>
       </c>
       <c r="I66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J66" s="3">
         <v>3900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3719,10 +3887,13 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-51900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-51600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-51000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-50600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-50200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-49600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-49200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-48600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-48100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-47600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-47300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-46700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-46200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-45900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-45600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-45100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3400</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-2800</v>
       </c>
       <c r="G76" s="3">
         <v>-2800</v>
       </c>
       <c r="H76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I76" s="3">
         <v>-2700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4159,52 +4354,55 @@
         <v>-300</v>
       </c>
       <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-500</v>
       </c>
       <c r="L81" s="3">
         <v>-500</v>
       </c>
       <c r="M81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4236,11 +4435,11 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
@@ -4248,11 +4447,11 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,34 +4756,37 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
@@ -4578,7 +4795,7 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
@@ -4593,10 +4810,13 @@
         <v>-200</v>
       </c>
       <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4645,14 +4866,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4666,11 +4887,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,70 +5304,76 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>300</v>
       </c>
       <c r="F100" s="3">
+        <v>300</v>
+      </c>
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>200</v>
-      </c>
       <c r="I100" s="3">
+        <v>200</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
-      </c>
-      <c r="K100" s="3">
-        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>200</v>
-      </c>
       <c r="R100" s="3">
         <v>200</v>
       </c>
       <c r="S100" s="3">
+        <v>200</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
@@ -5165,52 +5414,55 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>100</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
         <v>-100</v>
       </c>
       <c r="O102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BMIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BMIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>BMIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +809,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -817,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -835,31 +848,37 @@
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
       <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
         <v>100</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>-200</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>-100</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -891,31 +910,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
         <v>0</v>
       </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>-100</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,34 +1081,40 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>100</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>100</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1095,17 +1134,23 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1230,72 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>300</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
       </c>
       <c r="G17" s="3">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
       </c>
       <c r="I17" s="3">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
       </c>
       <c r="K17" s="3">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
-      </c>
-      <c r="S17" s="3">
-        <v>600</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>600</v>
+      </c>
+      <c r="V17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1303,61 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F18" s="3">
         <v>-300</v>
       </c>
       <c r="G18" s="3">
-        <v>-1300</v>
+        <v>-300</v>
       </c>
       <c r="H18" s="3">
         <v>-300</v>
       </c>
       <c r="I18" s="3">
-        <v>-400</v>
+        <v>-1300</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
       </c>
       <c r="K18" s="3">
-        <v>-1200</v>
+        <v>-400</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
       </c>
       <c r="M18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-600</v>
       </c>
       <c r="T18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,17 +1389,17 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1364,13 +1431,19 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,55 +1451,61 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-400</v>
       </c>
       <c r="J21" s="3">
         <v>-300</v>
       </c>
       <c r="K21" s="3">
-        <v>-1100</v>
+        <v>-400</v>
       </c>
       <c r="L21" s="3">
         <v>-300</v>
       </c>
       <c r="M21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,37 +1513,37 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>200</v>
-      </c>
       <c r="G22" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
       </c>
       <c r="K22" s="3">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
       </c>
       <c r="M22" s="3">
+        <v>700</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
@@ -1476,69 +1555,81 @@
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-600</v>
       </c>
       <c r="J27" s="3">
         <v>-400</v>
       </c>
       <c r="K27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,17 +2133,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2036,69 +2175,81 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-600</v>
       </c>
       <c r="J33" s="3">
         <v>-400</v>
       </c>
       <c r="K33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-600</v>
       </c>
       <c r="J35" s="3">
         <v>-400</v>
       </c>
       <c r="K35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2485,10 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2326,20 +2499,20 @@
         <v>300</v>
       </c>
       <c r="F41" s="3">
+        <v>300</v>
+      </c>
+      <c r="G41" s="3">
+        <v>300</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2353,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
-      </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
@@ -2368,10 +2541,16 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2667,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2524,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R44" s="3">
         <v>100</v>
@@ -2536,10 +2727,16 @@
         <v>100</v>
       </c>
       <c r="T44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U44" s="3">
+        <v>100</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2592,10 +2789,16 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2603,19 +2806,19 @@
         <v>300</v>
       </c>
       <c r="E46" s="3">
+        <v>300</v>
+      </c>
+      <c r="F46" s="3">
+        <v>300</v>
+      </c>
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
@@ -2633,16 +2836,16 @@
         <v>100</v>
       </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>100</v>
-      </c>
-      <c r="R46" s="3">
-        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>100</v>
@@ -2650,8 +2853,14 @@
       <c r="T46" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2691,11 +2900,11 @@
       <c r="O47" s="3">
         <v>200</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
+      <c r="P47" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>200</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>4</v>
@@ -2706,8 +2915,14 @@
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2721,10 +2936,10 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
@@ -2739,16 +2954,16 @@
         <v>200</v>
       </c>
       <c r="M48" s="3">
+        <v>200</v>
+      </c>
+      <c r="N48" s="3">
+        <v>200</v>
+      </c>
+      <c r="O48" s="3">
         <v>300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>300</v>
-      </c>
-      <c r="O48" s="3">
-        <v>400</v>
-      </c>
-      <c r="P48" s="3">
-        <v>400</v>
       </c>
       <c r="Q48" s="3">
         <v>400</v>
@@ -2762,13 +2977,19 @@
       <c r="T48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>400</v>
+      </c>
+      <c r="V48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="E49" s="3">
         <v>400</v>
@@ -2777,10 +2998,10 @@
         <v>400</v>
       </c>
       <c r="G49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I49" s="3">
         <v>500</v>
@@ -2798,10 +3019,10 @@
         <v>500</v>
       </c>
       <c r="N49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P49" s="3">
         <v>600</v>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>600</v>
+      </c>
+      <c r="V49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,25 +3287,31 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="E54" s="3">
         <v>1000</v>
       </c>
       <c r="F54" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G54" s="3">
         <v>1000</v>
       </c>
       <c r="H54" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I54" s="3">
         <v>1000</v>
@@ -3078,28 +3329,34 @@
         <v>1000</v>
       </c>
       <c r="N54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P54" s="3">
         <v>1200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,13 +3401,15 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="E57" s="3">
         <v>700</v>
@@ -3157,10 +3418,10 @@
         <v>700</v>
       </c>
       <c r="G57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I57" s="3">
         <v>600</v>
@@ -3169,19 +3430,19 @@
         <v>600</v>
       </c>
       <c r="K57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M57" s="3">
         <v>500</v>
       </c>
       <c r="N57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
@@ -3190,128 +3451,146 @@
         <v>400</v>
       </c>
       <c r="R57" s="3">
+        <v>400</v>
+      </c>
+      <c r="S57" s="3">
+        <v>400</v>
+      </c>
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
         <v>1100</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1200</v>
       </c>
       <c r="F58" s="3">
         <v>1100</v>
       </c>
       <c r="G58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1100</v>
       </c>
       <c r="K58" s="3">
         <v>1100</v>
       </c>
       <c r="L58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>600</v>
+      </c>
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3319,55 +3598,61 @@
         <v>2600</v>
       </c>
       <c r="E60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G60" s="3">
         <v>2500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2000</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2300</v>
       </c>
       <c r="K60" s="3">
         <v>2100</v>
       </c>
       <c r="L60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N60" s="3">
         <v>1800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1100</v>
-      </c>
-      <c r="S60" s="3">
-        <v>1000</v>
       </c>
       <c r="T60" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V60" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3707,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3434,10 +3725,10 @@
         <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>200</v>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>200</v>
+      </c>
+      <c r="V62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F66" s="3">
         <v>4600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3600</v>
-      </c>
-      <c r="L66" s="3">
-        <v>3300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>3000</v>
       </c>
       <c r="N66" s="3">
         <v>3300</v>
       </c>
       <c r="O66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Q66" s="3">
         <v>3200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2800</v>
-      </c>
-      <c r="R66" s="3">
-        <v>2700</v>
-      </c>
-      <c r="S66" s="3">
-        <v>2500</v>
       </c>
       <c r="T66" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V66" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3890,10 +4225,16 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-52200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="G72" s="3">
         <v>-51900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-51600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-51000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-50600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-50200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-49600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-49200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-48600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-48100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-47600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-47300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-46700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-46200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-45900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-45600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-45100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3600</v>
+        <v>-2600</v>
       </c>
       <c r="E76" s="3">
         <v>-3500</v>
       </c>
       <c r="F76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H76" s="3">
         <v>-3400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-600</v>
       </c>
       <c r="J81" s="3">
         <v>-400</v>
       </c>
       <c r="K81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4438,26 +4835,26 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,13 +5186,19 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>500</v>
       </c>
       <c r="E89" s="3">
         <v>-300</v>
@@ -4774,34 +5207,34 @@
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-500</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
@@ -4813,10 +5246,16 @@
         <v>-200</v>
       </c>
       <c r="T89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,13 +5276,15 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4869,18 +5310,18 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
@@ -4890,11 +5331,17 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,13 +5458,19 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5792,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E100" s="3">
         <v>300</v>
       </c>
       <c r="F100" s="3">
+        <v>200</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>300</v>
+      </c>
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>400</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>400</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>400</v>
+      </c>
+      <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5372,14 +5869,14 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -5417,10 +5914,16 @@
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5428,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -5437,42 +5940,48 @@
         <v>100</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BMIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BMIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>BMIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,23 +843,23 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
@@ -860,11 +867,11 @@
         <v>0</v>
       </c>
       <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>100</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
       <c r="S9" s="3">
         <v>0</v>
       </c>
@@ -872,13 +879,16 @@
         <v>0</v>
       </c>
       <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
         <v>100</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,23 +908,23 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>-200</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
@@ -922,11 +932,11 @@
         <v>0</v>
       </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
       <c r="S10" s="3">
         <v>0</v>
       </c>
@@ -934,13 +944,16 @@
         <v>0</v>
       </c>
       <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>-100</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,37 +1104,40 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1140,17 +1160,20 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1241,10 +1268,10 @@
         <v>4</v>
       </c>
       <c r="E17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
@@ -1253,49 +1280,52 @@
         <v>300</v>
       </c>
       <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,10 +1333,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-300</v>
       </c>
       <c r="G18" s="3">
         <v>-300</v>
@@ -1315,49 +1345,52 @@
         <v>-300</v>
       </c>
       <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-300</v>
       </c>
       <c r="O18" s="3">
         <v>-300</v>
       </c>
       <c r="P18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,20 +1423,20 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1437,13 +1471,16 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,61 +1488,64 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-300</v>
       </c>
       <c r="G21" s="3">
         <v>-300</v>
       </c>
       <c r="H21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-300</v>
       </c>
       <c r="O21" s="3">
         <v>-300</v>
       </c>
       <c r="P21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1513,22 +1553,22 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>800</v>
-      </c>
-      <c r="J22" s="3">
-        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
@@ -1537,16 +1577,16 @@
         <v>200</v>
       </c>
       <c r="M22" s="3">
+        <v>200</v>
+      </c>
+      <c r="N22" s="3">
         <v>700</v>
-      </c>
-      <c r="N22" s="3">
-        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
@@ -1561,75 +1601,81 @@
         <v>100</v>
       </c>
       <c r="U22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-400</v>
       </c>
       <c r="G23" s="3">
         <v>-400</v>
       </c>
       <c r="H23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1800</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-500</v>
       </c>
       <c r="O23" s="3">
         <v>-500</v>
       </c>
       <c r="P23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1761,61 +1813,64 @@
         <v>4</v>
       </c>
       <c r="E26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-400</v>
       </c>
       <c r="G26" s="3">
         <v>-400</v>
       </c>
       <c r="H26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-500</v>
       </c>
       <c r="O26" s="3">
         <v>-500</v>
       </c>
       <c r="P26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1823,61 +1878,64 @@
         <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F27" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>-300</v>
       </c>
       <c r="H27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-500</v>
       </c>
       <c r="O27" s="3">
         <v>-500</v>
       </c>
       <c r="P27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,20 +2203,20 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2181,13 +2251,16 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2195,61 +2268,64 @@
         <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F33" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>-300</v>
       </c>
       <c r="H33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-500</v>
       </c>
       <c r="O33" s="3">
         <v>-500</v>
       </c>
       <c r="P33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2319,128 +2398,134 @@
         <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F35" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>-300</v>
       </c>
       <c r="H35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-500</v>
       </c>
       <c r="O35" s="3">
         <v>-500</v>
       </c>
       <c r="P35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,13 +2573,14 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>300</v>
@@ -2505,17 +2592,17 @@
         <v>300</v>
       </c>
       <c r="H41" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I41" s="3">
         <v>200</v>
       </c>
       <c r="J41" s="3">
+        <v>200</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2532,25 +2619,28 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2721,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="R44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S44" s="3">
         <v>100</v>
@@ -2733,10 +2829,13 @@
         <v>100</v>
       </c>
       <c r="V44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2795,15 +2894,18 @@
         <v>0</v>
       </c>
       <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>300</v>
@@ -2812,16 +2914,16 @@
         <v>300</v>
       </c>
       <c r="G46" s="3">
+        <v>300</v>
+      </c>
+      <c r="H46" s="3">
         <v>400</v>
-      </c>
-      <c r="H46" s="3">
-        <v>200</v>
       </c>
       <c r="I46" s="3">
         <v>200</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
@@ -2842,25 +2944,28 @@
         <v>100</v>
       </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2906,8 +3011,8 @@
       <c r="Q47" s="3">
         <v>200</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
+      <c r="R47" s="3">
+        <v>200</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>4</v>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2942,7 +3050,7 @@
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
@@ -2960,13 +3068,13 @@
         <v>200</v>
       </c>
       <c r="O48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>300</v>
       </c>
       <c r="Q48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R48" s="3">
         <v>400</v>
@@ -2983,16 +3091,19 @@
       <c r="V48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E49" s="3">
         <v>1300</v>
-      </c>
-      <c r="E49" s="3">
-        <v>400</v>
       </c>
       <c r="F49" s="3">
         <v>400</v>
@@ -3004,7 +3115,7 @@
         <v>400</v>
       </c>
       <c r="I49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J49" s="3">
         <v>500</v>
@@ -3025,7 +3136,7 @@
         <v>500</v>
       </c>
       <c r="P49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q49" s="3">
         <v>600</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3302,7 +3428,7 @@
         <v>1800</v>
       </c>
       <c r="E54" s="3">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="F54" s="3">
         <v>1000</v>
@@ -3311,10 +3437,10 @@
         <v>1000</v>
       </c>
       <c r="H54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I54" s="3">
         <v>900</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1000</v>
       </c>
       <c r="J54" s="3">
         <v>1000</v>
@@ -3335,28 +3461,31 @@
         <v>1000</v>
       </c>
       <c r="P54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1300</v>
       </c>
       <c r="R54" s="3">
         <v>1300</v>
       </c>
       <c r="S54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T54" s="3">
         <v>1100</v>
-      </c>
-      <c r="T54" s="3">
-        <v>1200</v>
       </c>
       <c r="U54" s="3">
         <v>1200</v>
       </c>
       <c r="V54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,16 +3533,17 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="E57" s="3">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="F57" s="3">
         <v>700</v>
@@ -3424,7 +3555,7 @@
         <v>700</v>
       </c>
       <c r="I57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J57" s="3">
         <v>600</v>
@@ -3436,7 +3567,7 @@
         <v>600</v>
       </c>
       <c r="M57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N57" s="3">
         <v>500</v>
@@ -3445,7 +3576,7 @@
         <v>500</v>
       </c>
       <c r="P57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
@@ -3457,42 +3588,45 @@
         <v>400</v>
       </c>
       <c r="T57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U57" s="3">
         <v>300</v>
       </c>
       <c r="V57" s="3">
+        <v>300</v>
+      </c>
+      <c r="W57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1100</v>
       </c>
       <c r="F58" s="3">
         <v>1100</v>
       </c>
       <c r="G58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1000</v>
       </c>
       <c r="J58" s="3">
         <v>1000</v>
       </c>
       <c r="K58" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="L58" s="3">
         <v>1100</v>
@@ -3501,34 +3635,37 @@
         <v>1100</v>
       </c>
       <c r="N58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O58" s="3">
         <v>1000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>900</v>
-      </c>
-      <c r="P58" s="3">
-        <v>700</v>
       </c>
       <c r="Q58" s="3">
         <v>700</v>
       </c>
       <c r="R58" s="3">
+        <v>700</v>
+      </c>
+      <c r="S58" s="3">
         <v>600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>400</v>
-      </c>
-      <c r="U58" s="3">
-        <v>300</v>
       </c>
       <c r="V58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3536,123 +3673,129 @@
         <v>600</v>
       </c>
       <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>600</v>
-      </c>
-      <c r="F59" s="3">
-        <v>700</v>
       </c>
       <c r="G59" s="3">
         <v>700</v>
       </c>
       <c r="H59" s="3">
+        <v>700</v>
+      </c>
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>500</v>
       </c>
       <c r="R59" s="3">
         <v>500</v>
       </c>
       <c r="S59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T59" s="3">
         <v>400</v>
       </c>
       <c r="U59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3731,7 +3877,7 @@
         <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4400</v>
+        <v>3400</v>
       </c>
       <c r="E66" s="3">
         <v>4400</v>
       </c>
       <c r="F66" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G66" s="3">
         <v>4600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3700</v>
       </c>
       <c r="K66" s="3">
         <v>3700</v>
       </c>
       <c r="L66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="M66" s="3">
         <v>3900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4231,10 +4399,13 @@
         <v>0</v>
       </c>
       <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-52900</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-52200</v>
       </c>
       <c r="F72" s="3">
         <v>-52200</v>
       </c>
       <c r="G72" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="H72" s="3">
         <v>-51900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-51600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-51000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-50600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-50200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-49600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-49200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-48600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-48100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-47600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-47300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-46700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-46200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-45900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-45600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-45100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3400</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-2800</v>
       </c>
       <c r="J76" s="3">
         <v>-2800</v>
       </c>
       <c r="K76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="L76" s="3">
         <v>-2700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4743,61 +4938,64 @@
         <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F81" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>-300</v>
       </c>
       <c r="H81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-500</v>
       </c>
       <c r="O81" s="3">
         <v>-500</v>
       </c>
       <c r="P81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4841,11 +5040,11 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
@@ -4853,11 +5052,11 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,43 +5406,46 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
@@ -5237,7 +5454,7 @@
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>-200</v>
@@ -5252,10 +5469,13 @@
         <v>-200</v>
       </c>
       <c r="V89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,16 +5498,17 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -5316,14 +5537,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5337,11 +5558,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,17 +5691,20 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-900</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>300</v>
       </c>
       <c r="H100" s="3">
         <v>300</v>
       </c>
       <c r="I100" s="3">
+        <v>300</v>
+      </c>
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
-      </c>
-      <c r="T100" s="3">
-        <v>200</v>
       </c>
       <c r="U100" s="3">
         <v>200</v>
       </c>
       <c r="V100" s="3">
+        <v>200</v>
+      </c>
+      <c r="W100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5875,11 +6124,11 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -5920,15 +6169,18 @@
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -5937,44 +6189,44 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
         <v>100</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
         <v>-100</v>
       </c>
       <c r="R102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BMIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BMIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>BMIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -846,22 +853,22 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -870,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
@@ -882,13 +889,16 @@
         <v>0</v>
       </c>
       <c r="V9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,23 +921,23 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>-200</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
         <v>0</v>
       </c>
@@ -935,11 +945,11 @@
         <v>0</v>
       </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
       <c r="T10" s="3">
         <v>0</v>
       </c>
@@ -947,13 +957,16 @@
         <v>0</v>
       </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>-100</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,40 +1124,43 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-200</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>200</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>100</v>
-      </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L14" s="3">
-        <v>100</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>100</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
@@ -1163,17 +1183,20 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,22 +1285,23 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>700</v>
       </c>
       <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
@@ -1283,49 +1310,52 @@
         <v>300</v>
       </c>
       <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
       </c>
       <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,13 +1363,13 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-300</v>
       </c>
       <c r="H18" s="3">
         <v>-300</v>
@@ -1348,49 +1378,52 @@
         <v>-300</v>
       </c>
       <c r="J18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-300</v>
       </c>
       <c r="P18" s="3">
         <v>-300</v>
       </c>
       <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1426,20 +1460,20 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1474,13 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,64 +1525,67 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-300</v>
       </c>
       <c r="H21" s="3">
         <v>-300</v>
       </c>
       <c r="I21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-300</v>
       </c>
       <c r="P21" s="3">
         <v>-300</v>
       </c>
       <c r="Q21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1556,22 +1596,22 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>800</v>
-      </c>
-      <c r="K22" s="3">
-        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
@@ -1580,16 +1620,16 @@
         <v>200</v>
       </c>
       <c r="N22" s="3">
+        <v>200</v>
+      </c>
+      <c r="O22" s="3">
         <v>700</v>
-      </c>
-      <c r="O22" s="3">
-        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>200</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
@@ -1604,78 +1644,84 @@
         <v>100</v>
       </c>
       <c r="V22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-400</v>
       </c>
       <c r="H23" s="3">
         <v>-400</v>
       </c>
       <c r="I23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-500</v>
       </c>
       <c r="P23" s="3">
         <v>-500</v>
       </c>
       <c r="Q23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-800</v>
       </c>
       <c r="E26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-400</v>
       </c>
       <c r="H26" s="3">
         <v>-400</v>
       </c>
       <c r="I26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-500</v>
       </c>
       <c r="P26" s="3">
         <v>-500</v>
       </c>
       <c r="Q26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-600</v>
       </c>
       <c r="E27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>-300</v>
       </c>
       <c r="I27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-500</v>
       </c>
       <c r="P27" s="3">
         <v>-500</v>
       </c>
       <c r="Q27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2206,19 +2276,19 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2254,78 +2324,84 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>100</v>
+      </c>
+      <c r="X32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-600</v>
       </c>
       <c r="E33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>-300</v>
       </c>
       <c r="I33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-500</v>
       </c>
       <c r="P33" s="3">
         <v>-500</v>
       </c>
       <c r="Q33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-600</v>
       </c>
       <c r="E35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>-300</v>
       </c>
       <c r="I35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-500</v>
       </c>
       <c r="P35" s="3">
         <v>-500</v>
       </c>
       <c r="Q35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,16 +2660,17 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>300</v>
@@ -2595,16 +2682,16 @@
         <v>300</v>
       </c>
       <c r="I41" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J41" s="3">
         <v>200</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2622,25 +2709,28 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2820,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="S44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T44" s="3">
         <v>100</v>
@@ -2832,10 +2928,13 @@
         <v>100</v>
       </c>
       <c r="W44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2897,10 +2996,13 @@
         <v>0</v>
       </c>
       <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2908,7 +3010,7 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>300</v>
@@ -2917,16 +3019,16 @@
         <v>300</v>
       </c>
       <c r="H46" s="3">
+        <v>300</v>
+      </c>
+      <c r="I46" s="3">
         <v>400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
@@ -2947,25 +3049,28 @@
         <v>100</v>
       </c>
       <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
-        <v>100</v>
-      </c>
       <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
-        <v>100</v>
-      </c>
       <c r="W46" s="3">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3014,8 +3119,8 @@
       <c r="R47" s="3">
         <v>200</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
+      <c r="S47" s="3">
+        <v>200</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>4</v>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3053,7 +3161,7 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
@@ -3071,13 +3179,13 @@
         <v>200</v>
       </c>
       <c r="P48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q48" s="3">
         <v>300</v>
       </c>
       <c r="R48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S48" s="3">
         <v>400</v>
@@ -3094,19 +3202,22 @@
       <c r="W48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1300</v>
-      </c>
-      <c r="F49" s="3">
-        <v>400</v>
       </c>
       <c r="G49" s="3">
         <v>400</v>
@@ -3118,7 +3229,7 @@
         <v>400</v>
       </c>
       <c r="J49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K49" s="3">
         <v>500</v>
@@ -3139,7 +3250,7 @@
         <v>500</v>
       </c>
       <c r="Q49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="R49" s="3">
         <v>600</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,19 +3542,22 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="E54" s="3">
         <v>1800</v>
       </c>
       <c r="F54" s="3">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="G54" s="3">
         <v>1000</v>
@@ -3440,10 +3566,10 @@
         <v>1000</v>
       </c>
       <c r="I54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J54" s="3">
         <v>900</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1000</v>
       </c>
       <c r="K54" s="3">
         <v>1000</v>
@@ -3464,28 +3590,31 @@
         <v>1000</v>
       </c>
       <c r="Q54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R54" s="3">
         <v>1200</v>
-      </c>
-      <c r="R54" s="3">
-        <v>1300</v>
       </c>
       <c r="S54" s="3">
         <v>1300</v>
       </c>
       <c r="T54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U54" s="3">
         <v>1100</v>
-      </c>
-      <c r="U54" s="3">
-        <v>1200</v>
       </c>
       <c r="V54" s="3">
         <v>1200</v>
       </c>
       <c r="W54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,19 +3664,20 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>1200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>700</v>
       </c>
       <c r="G57" s="3">
         <v>700</v>
@@ -3558,7 +3689,7 @@
         <v>700</v>
       </c>
       <c r="J57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K57" s="3">
         <v>600</v>
@@ -3570,7 +3701,7 @@
         <v>600</v>
       </c>
       <c r="N57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O57" s="3">
         <v>500</v>
@@ -3579,7 +3710,7 @@
         <v>500</v>
       </c>
       <c r="Q57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R57" s="3">
         <v>400</v>
@@ -3591,16 +3722,19 @@
         <v>400</v>
       </c>
       <c r="U57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V57" s="3">
         <v>300</v>
       </c>
       <c r="W57" s="3">
+        <v>300</v>
+      </c>
+      <c r="X57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,28 +3742,28 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
         <v>700</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1100</v>
       </c>
       <c r="G58" s="3">
         <v>1100</v>
       </c>
       <c r="H58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1000</v>
       </c>
       <c r="K58" s="3">
         <v>1000</v>
       </c>
       <c r="L58" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="M58" s="3">
         <v>1100</v>
@@ -3638,164 +3772,173 @@
         <v>1100</v>
       </c>
       <c r="O58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P58" s="3">
         <v>1000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>900</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>700</v>
       </c>
       <c r="R58" s="3">
         <v>700</v>
       </c>
       <c r="S58" s="3">
+        <v>700</v>
+      </c>
+      <c r="T58" s="3">
         <v>600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>400</v>
-      </c>
-      <c r="V58" s="3">
-        <v>300</v>
       </c>
       <c r="W58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>800</v>
+      </c>
+      <c r="G59" s="3">
         <v>600</v>
-      </c>
-      <c r="E59" s="3">
-        <v>800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>700</v>
       </c>
       <c r="H59" s="3">
         <v>700</v>
       </c>
       <c r="I59" s="3">
+        <v>700</v>
+      </c>
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
-      </c>
-      <c r="R59" s="3">
-        <v>500</v>
       </c>
       <c r="S59" s="3">
         <v>500</v>
       </c>
       <c r="T59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U59" s="3">
         <v>400</v>
       </c>
       <c r="V59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3880,7 +4026,7 @@
         <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>200</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
         <v>3400</v>
-      </c>
-      <c r="E66" s="3">
-        <v>4400</v>
       </c>
       <c r="F66" s="3">
         <v>4400</v>
       </c>
       <c r="G66" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H66" s="3">
         <v>4600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3800</v>
-      </c>
-      <c r="K66" s="3">
-        <v>3700</v>
       </c>
       <c r="L66" s="3">
         <v>3700</v>
       </c>
       <c r="M66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="N66" s="3">
         <v>3900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4402,10 +4570,13 @@
         <v>0</v>
       </c>
       <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-54300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-53700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-52900</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-52200</v>
       </c>
       <c r="G72" s="3">
         <v>-52200</v>
       </c>
       <c r="H72" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="I72" s="3">
         <v>-51900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-51600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-51000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-50600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-50200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-49600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-49200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-48600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-48100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-47600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-47300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-46700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-46200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-45900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-45600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-45100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-2800</v>
       </c>
       <c r="K76" s="3">
         <v>-2800</v>
       </c>
       <c r="L76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="M76" s="3">
         <v>-2700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-600</v>
       </c>
       <c r="E81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>-300</v>
       </c>
       <c r="I81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-500</v>
       </c>
       <c r="P81" s="3">
         <v>-500</v>
       </c>
       <c r="Q81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5043,10 +5242,10 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -5055,10 +5254,10 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,46 +5623,49 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
@@ -5457,7 +5674,7 @@
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>-200</v>
@@ -5472,10 +5689,13 @@
         <v>-200</v>
       </c>
       <c r="W89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5510,8 +5731,8 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5540,14 +5761,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5561,11 +5782,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,20 +5921,23 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-900</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6053,64 +6299,67 @@
         <v>400</v>
       </c>
       <c r="E100" s="3">
+        <v>400</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
-      </c>
-      <c r="H100" s="3">
-        <v>300</v>
       </c>
       <c r="I100" s="3">
         <v>300</v>
       </c>
       <c r="J100" s="3">
+        <v>300</v>
+      </c>
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
       <c r="U100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
         <v>200</v>
       </c>
       <c r="W100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="X100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6127,10 +6376,10 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -6172,19 +6421,22 @@
         <v>0</v>
       </c>
       <c r="W101" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -6192,43 +6444,43 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>100</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
         <v>-100</v>
       </c>
       <c r="S102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BMIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BMIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>BMIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,111 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +836,14 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -856,14 +869,14 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
@@ -874,31 +887,37 @@
         <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V9" s="3">
         <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -906,7 +925,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -924,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>-200</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>-100</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -942,31 +961,37 @@
         <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
       </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>-100</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
       <c r="V10" s="3">
         <v>0</v>
       </c>
       <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
         <v>-100</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1016,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1086,14 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,46 +1160,52 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>100</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>100</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1186,17 +1225,23 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1308,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,76 +1337,84 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>900</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>300</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
       </c>
       <c r="K17" s="3">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
       <c r="O17" s="3">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
       </c>
       <c r="Q17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
+        <v>300</v>
+      </c>
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>300</v>
-      </c>
-      <c r="V17" s="3">
-        <v>200</v>
-      </c>
-      <c r="W17" s="3">
-        <v>600</v>
       </c>
       <c r="X17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,67 +1422,73 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-300</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
       </c>
       <c r="K18" s="3">
-        <v>-1300</v>
+        <v>-300</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
       </c>
       <c r="M18" s="3">
-        <v>-400</v>
+        <v>-1300</v>
       </c>
       <c r="N18" s="3">
         <v>-300</v>
       </c>
       <c r="O18" s="3">
-        <v>-1200</v>
+        <v>-400</v>
       </c>
       <c r="P18" s="3">
         <v>-300</v>
       </c>
       <c r="Q18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-600</v>
       </c>
       <c r="X18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1513,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1463,23 +1530,23 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1511,13 +1578,19 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,117 +1598,123 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-400</v>
       </c>
       <c r="N21" s="3">
         <v>-300</v>
       </c>
       <c r="O21" s="3">
-        <v>-1100</v>
+        <v>-400</v>
       </c>
       <c r="P21" s="3">
         <v>-300</v>
       </c>
       <c r="Q21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
       </c>
       <c r="M22" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
       </c>
       <c r="O22" s="3">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>200</v>
       </c>
       <c r="Q22" s="3">
+        <v>700</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
-        <v>100</v>
-      </c>
       <c r="S22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
@@ -1647,81 +1726,93 @@
         <v>100</v>
       </c>
       <c r="W22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1879,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1953,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-600</v>
       </c>
       <c r="N27" s="3">
         <v>-400</v>
       </c>
       <c r="O27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2249,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2397,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2279,22 +2418,22 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2327,81 +2466,93 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-600</v>
       </c>
       <c r="N33" s="3">
         <v>-400</v>
       </c>
       <c r="O33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-600</v>
       </c>
       <c r="N35" s="3">
         <v>-400</v>
       </c>
       <c r="O35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,22 +2832,24 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>300</v>
@@ -2685,19 +2858,19 @@
         <v>300</v>
       </c>
       <c r="J41" s="3">
+        <v>300</v>
+      </c>
+      <c r="K41" s="3">
+        <v>300</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2712,13 +2885,13 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
@@ -2727,10 +2900,16 @@
         <v>0</v>
       </c>
       <c r="X41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2976,14 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,13 +3050,19 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -2919,10 +3110,10 @@
         <v>0</v>
       </c>
       <c r="T44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V44" s="3">
         <v>100</v>
@@ -2931,10 +3122,16 @@
         <v>100</v>
       </c>
       <c r="X44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2999,10 +3196,16 @@
         <v>0</v>
       </c>
       <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3013,29 +3216,29 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>300</v>
       </c>
       <c r="I46" s="3">
+        <v>300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>300</v>
+      </c>
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
@@ -3052,16 +3255,16 @@
         <v>100</v>
       </c>
       <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>300</v>
-      </c>
-      <c r="U46" s="3">
-        <v>100</v>
-      </c>
-      <c r="V46" s="3">
-        <v>200</v>
       </c>
       <c r="W46" s="3">
         <v>100</v>
@@ -3069,8 +3272,14 @@
       <c r="X46" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3122,11 +3331,11 @@
       <c r="S47" s="3">
         <v>200</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
+      <c r="T47" s="3">
+        <v>200</v>
+      </c>
+      <c r="U47" s="3">
+        <v>200</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>4</v>
@@ -3137,8 +3346,14 @@
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3164,10 +3379,10 @@
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
@@ -3182,16 +3397,16 @@
         <v>200</v>
       </c>
       <c r="Q48" s="3">
+        <v>200</v>
+      </c>
+      <c r="R48" s="3">
+        <v>200</v>
+      </c>
+      <c r="S48" s="3">
         <v>300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>300</v>
-      </c>
-      <c r="S48" s="3">
-        <v>400</v>
-      </c>
-      <c r="T48" s="3">
-        <v>400</v>
       </c>
       <c r="U48" s="3">
         <v>400</v>
@@ -3205,25 +3420,31 @@
       <c r="X48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E49" s="3">
         <v>1300</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1500</v>
       </c>
       <c r="F49" s="3">
         <v>1300</v>
       </c>
       <c r="G49" s="3">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="H49" s="3">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="I49" s="3">
         <v>400</v>
@@ -3232,10 +3453,10 @@
         <v>400</v>
       </c>
       <c r="K49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M49" s="3">
         <v>500</v>
@@ -3253,10 +3474,10 @@
         <v>500</v>
       </c>
       <c r="R49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="S49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T49" s="3">
         <v>600</v>
@@ -3273,8 +3494,14 @@
       <c r="X49" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3642,14 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3716,14 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,37 +3790,43 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G54" s="3">
         <v>1800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1800</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1000</v>
       </c>
       <c r="I54" s="3">
         <v>1000</v>
       </c>
       <c r="J54" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K54" s="3">
         <v>1000</v>
       </c>
       <c r="L54" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M54" s="3">
         <v>1000</v>
@@ -3593,28 +3844,34 @@
         <v>1000</v>
       </c>
       <c r="R54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T54" s="3">
         <v>1200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,25 +3924,27 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>700</v>
       </c>
       <c r="I57" s="3">
         <v>700</v>
@@ -3692,10 +3953,10 @@
         <v>700</v>
       </c>
       <c r="K57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M57" s="3">
         <v>600</v>
@@ -3704,19 +3965,19 @@
         <v>600</v>
       </c>
       <c r="O57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q57" s="3">
         <v>500</v>
       </c>
       <c r="R57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T57" s="3">
         <v>400</v>
@@ -3725,220 +3986,244 @@
         <v>400</v>
       </c>
       <c r="V57" s="3">
+        <v>400</v>
+      </c>
+      <c r="W57" s="3">
+        <v>400</v>
+      </c>
+      <c r="X57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1200</v>
       </c>
       <c r="J58" s="3">
         <v>1100</v>
       </c>
       <c r="K58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1100</v>
       </c>
       <c r="O58" s="3">
         <v>1100</v>
       </c>
       <c r="P58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R58" s="3">
         <v>1000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>700</v>
+      </c>
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2600</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2300</v>
       </c>
       <c r="H60" s="3">
         <v>2600</v>
       </c>
       <c r="I60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K60" s="3">
         <v>2500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
-      </c>
-      <c r="M60" s="3">
-        <v>2100</v>
-      </c>
-      <c r="N60" s="3">
-        <v>2300</v>
       </c>
       <c r="O60" s="3">
         <v>2100</v>
       </c>
       <c r="P60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R60" s="3">
         <v>1800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1300</v>
-      </c>
-      <c r="V60" s="3">
-        <v>1100</v>
-      </c>
-      <c r="W60" s="3">
-        <v>1000</v>
       </c>
       <c r="X60" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4290,14 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4029,10 +4320,10 @@
         <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>200</v>
@@ -4073,8 +4364,14 @@
       <c r="X62" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4586,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G66" s="3">
         <v>3400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3600</v>
-      </c>
-      <c r="P66" s="3">
-        <v>3300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>3000</v>
       </c>
       <c r="R66" s="3">
         <v>3300</v>
       </c>
       <c r="S66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="U66" s="3">
         <v>3200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2800</v>
-      </c>
-      <c r="V66" s="3">
-        <v>2700</v>
-      </c>
-      <c r="W66" s="3">
-        <v>2500</v>
       </c>
       <c r="X66" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4573,10 +4908,16 @@
         <v>0</v>
       </c>
       <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-55500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-54300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-53700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-52900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-52200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-52200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-51900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-51600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-51000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-50600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-50200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-49600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-49200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-48600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-48100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-47600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-47300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-46700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-46200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-45900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-45600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-45100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2600</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-3600</v>
       </c>
       <c r="I76" s="3">
         <v>-3500</v>
       </c>
       <c r="J76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="K76" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="L76" s="3">
         <v>-3400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-2100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-1700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-1400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-1300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-600</v>
       </c>
       <c r="N81" s="3">
         <v>-400</v>
       </c>
       <c r="O81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5613,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5245,25 +5642,25 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -5286,8 +5683,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,25 +6053,31 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>500</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-200</v>
       </c>
       <c r="I89" s="3">
         <v>-300</v>
@@ -5653,34 +6086,34 @@
         <v>-200</v>
       </c>
       <c r="K89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-500</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>-200</v>
@@ -5692,10 +6125,16 @@
         <v>-200</v>
       </c>
       <c r="X89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,25 +6159,27 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -5764,18 +6205,18 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3" t="s">
+      <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
@@ -5785,11 +6226,17 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,26 +6377,32 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>700</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-900</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5992,8 +6451,14 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6483,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6553,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,84 +6775,96 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>600</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
-      </c>
-      <c r="G100" s="3">
-        <v>300</v>
-      </c>
-      <c r="H100" s="3">
-        <v>200</v>
       </c>
       <c r="I100" s="3">
         <v>300</v>
       </c>
       <c r="J100" s="3">
+        <v>200</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>300</v>
+      </c>
+      <c r="M100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
-        <v>100</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -6379,13 +6876,13 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -6424,10 +6921,16 @@
         <v>0</v>
       </c>
       <c r="X101" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6435,19 +6938,19 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -6456,42 +6959,48 @@
         <v>100</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BMIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BMIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>BMIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -842,8 +846,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -851,11 +858,11 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
@@ -875,22 +882,22 @@
         <v>0</v>
       </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
@@ -899,10 +906,10 @@
         <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
         <v>0</v>
@@ -911,13 +918,16 @@
         <v>0</v>
       </c>
       <c r="Y9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -925,11 +935,11 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>-200</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
@@ -949,23 +959,23 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>-200</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
       <c r="S10" s="3">
         <v>0</v>
       </c>
@@ -973,11 +983,11 @@
         <v>0</v>
       </c>
       <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>-100</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
       <c r="W10" s="3">
         <v>0</v>
       </c>
@@ -985,13 +995,16 @@
         <v>0</v>
       </c>
       <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <v>-100</v>
       </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,49 +1183,52 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>100</v>
-      </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O14" s="3">
-        <v>100</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>100</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1231,17 +1251,20 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,31 +1365,32 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>1000</v>
       </c>
       <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>300</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
@@ -1372,49 +1399,52 @@
         <v>300</v>
       </c>
       <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
-      </c>
-      <c r="R17" s="3">
-        <v>300</v>
       </c>
       <c r="S17" s="3">
         <v>300</v>
       </c>
       <c r="T17" s="3">
+        <v>300</v>
+      </c>
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,22 +1452,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-300</v>
       </c>
       <c r="K18" s="3">
         <v>-300</v>
@@ -1446,49 +1476,52 @@
         <v>-300</v>
       </c>
       <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-300</v>
       </c>
       <c r="S18" s="3">
         <v>-300</v>
       </c>
       <c r="T18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1536,20 +1570,20 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1584,13 +1618,16 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1598,73 +1635,76 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-300</v>
       </c>
       <c r="K21" s="3">
         <v>-300</v>
       </c>
       <c r="L21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-300</v>
       </c>
       <c r="S21" s="3">
         <v>-300</v>
       </c>
       <c r="T21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1675,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1684,22 +1724,22 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>800</v>
-      </c>
-      <c r="N22" s="3">
-        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
@@ -1708,16 +1748,16 @@
         <v>200</v>
       </c>
       <c r="Q22" s="3">
+        <v>200</v>
+      </c>
+      <c r="R22" s="3">
         <v>700</v>
-      </c>
-      <c r="R22" s="3">
-        <v>200</v>
       </c>
       <c r="S22" s="3">
         <v>200</v>
       </c>
       <c r="T22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U22" s="3">
         <v>100</v>
@@ -1732,87 +1772,93 @@
         <v>100</v>
       </c>
       <c r="Y22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>800</v>
+        <v>-1000</v>
       </c>
       <c r="E23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-400</v>
       </c>
       <c r="K23" s="3">
         <v>-400</v>
       </c>
       <c r="L23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1800</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-500</v>
       </c>
       <c r="S23" s="3">
         <v>-500</v>
       </c>
       <c r="T23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-1000</v>
       </c>
       <c r="E26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-400</v>
       </c>
       <c r="K26" s="3">
         <v>-400</v>
       </c>
       <c r="L26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1800</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-500</v>
       </c>
       <c r="S26" s="3">
         <v>-500</v>
       </c>
       <c r="T26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-900</v>
       </c>
       <c r="E27" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F27" s="3">
         <v>-600</v>
       </c>
       <c r="G27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>-300</v>
       </c>
       <c r="L27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1700</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-500</v>
       </c>
       <c r="S27" s="3">
         <v>-500</v>
       </c>
       <c r="T27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2424,19 +2494,19 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2472,87 +2542,93 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-900</v>
       </c>
       <c r="E33" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F33" s="3">
         <v>-600</v>
       </c>
       <c r="G33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>-300</v>
       </c>
       <c r="L33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1700</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-500</v>
       </c>
       <c r="S33" s="3">
         <v>-500</v>
       </c>
       <c r="T33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-900</v>
       </c>
       <c r="E35" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F35" s="3">
         <v>-600</v>
       </c>
       <c r="G35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>-300</v>
       </c>
       <c r="L35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1700</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-500</v>
       </c>
       <c r="S35" s="3">
         <v>-500</v>
       </c>
       <c r="T35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,25 +2920,26 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>300</v>
@@ -2864,16 +2951,16 @@
         <v>300</v>
       </c>
       <c r="L41" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M41" s="3">
         <v>200</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -2891,25 +2978,28 @@
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,16 +3149,19 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -3116,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="V44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W44" s="3">
         <v>100</v>
@@ -3128,10 +3224,13 @@
         <v>100</v>
       </c>
       <c r="Z44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3202,15 +3301,18 @@
         <v>0</v>
       </c>
       <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -3222,7 +3324,7 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>300</v>
@@ -3231,16 +3333,16 @@
         <v>300</v>
       </c>
       <c r="K46" s="3">
+        <v>300</v>
+      </c>
+      <c r="L46" s="3">
         <v>400</v>
-      </c>
-      <c r="L46" s="3">
-        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
@@ -3261,25 +3363,28 @@
         <v>100</v>
       </c>
       <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>300</v>
       </c>
-      <c r="W46" s="3">
-        <v>100</v>
-      </c>
       <c r="X46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y46" s="3">
         <v>200</v>
       </c>
-      <c r="Y46" s="3">
-        <v>100</v>
-      </c>
       <c r="Z46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3337,8 +3442,8 @@
       <c r="U47" s="3">
         <v>200</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>4</v>
+      <c r="V47" s="3">
+        <v>200</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>4</v>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3385,7 +3493,7 @@
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
@@ -3403,13 +3511,13 @@
         <v>200</v>
       </c>
       <c r="S48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T48" s="3">
         <v>300</v>
       </c>
       <c r="U48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="V48" s="3">
         <v>400</v>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3435,19 +3546,19 @@
         <v>1500</v>
       </c>
       <c r="E49" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F49" s="3">
         <v>1300</v>
       </c>
       <c r="G49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H49" s="3">
         <v>1500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1300</v>
-      </c>
-      <c r="I49" s="3">
-        <v>400</v>
       </c>
       <c r="J49" s="3">
         <v>400</v>
@@ -3459,7 +3570,7 @@
         <v>400</v>
       </c>
       <c r="M49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N49" s="3">
         <v>500</v>
@@ -3480,7 +3591,7 @@
         <v>500</v>
       </c>
       <c r="T49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="U49" s="3">
         <v>600</v>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,28 +3919,31 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1900</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1600</v>
       </c>
       <c r="F54" s="3">
         <v>1600</v>
       </c>
       <c r="G54" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="H54" s="3">
         <v>1800</v>
       </c>
       <c r="I54" s="3">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="J54" s="3">
         <v>1000</v>
@@ -3826,10 +3952,10 @@
         <v>1000</v>
       </c>
       <c r="L54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M54" s="3">
         <v>900</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1000</v>
       </c>
       <c r="N54" s="3">
         <v>1000</v>
@@ -3850,28 +3976,31 @@
         <v>1000</v>
       </c>
       <c r="T54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U54" s="3">
         <v>1200</v>
-      </c>
-      <c r="U54" s="3">
-        <v>1300</v>
       </c>
       <c r="V54" s="3">
         <v>1300</v>
       </c>
       <c r="W54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X54" s="3">
         <v>1100</v>
-      </c>
-      <c r="X54" s="3">
-        <v>1200</v>
       </c>
       <c r="Y54" s="3">
         <v>1200</v>
       </c>
       <c r="Z54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,28 +4056,29 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
-      </c>
-      <c r="E57" s="3">
-        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
       </c>
       <c r="G57" s="3">
+        <v>300</v>
+      </c>
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>700</v>
       </c>
       <c r="J57" s="3">
         <v>700</v>
@@ -3959,7 +4090,7 @@
         <v>700</v>
       </c>
       <c r="M57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N57" s="3">
         <v>600</v>
@@ -3971,7 +4102,7 @@
         <v>600</v>
       </c>
       <c r="Q57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R57" s="3">
         <v>500</v>
@@ -3980,7 +4111,7 @@
         <v>500</v>
       </c>
       <c r="T57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U57" s="3">
         <v>400</v>
@@ -3992,54 +4123,57 @@
         <v>400</v>
       </c>
       <c r="X57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Y57" s="3">
         <v>300</v>
       </c>
       <c r="Z57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
       <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
         <v>700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1100</v>
       </c>
       <c r="J58" s="3">
         <v>1100</v>
       </c>
       <c r="K58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L58" s="3">
         <v>1200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1100</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1000</v>
       </c>
       <c r="N58" s="3">
         <v>1000</v>
       </c>
       <c r="O58" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="P58" s="3">
         <v>1100</v>
@@ -4048,182 +4182,191 @@
         <v>1100</v>
       </c>
       <c r="R58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S58" s="3">
         <v>1000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>900</v>
-      </c>
-      <c r="T58" s="3">
-        <v>700</v>
       </c>
       <c r="U58" s="3">
         <v>700</v>
       </c>
       <c r="V58" s="3">
+        <v>700</v>
+      </c>
+      <c r="W58" s="3">
         <v>600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>400</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>300</v>
       </c>
       <c r="Z58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
-      </c>
-      <c r="E59" s="3">
-        <v>700</v>
       </c>
       <c r="F59" s="3">
         <v>700</v>
       </c>
       <c r="G59" s="3">
+        <v>700</v>
+      </c>
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>700</v>
       </c>
       <c r="K59" s="3">
         <v>700</v>
       </c>
       <c r="L59" s="3">
+        <v>700</v>
+      </c>
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>600</v>
-      </c>
-      <c r="U59" s="3">
-        <v>500</v>
       </c>
       <c r="V59" s="3">
         <v>500</v>
       </c>
       <c r="W59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="X59" s="3">
         <v>400</v>
       </c>
       <c r="Y59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Z59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4326,7 +4472,7 @@
         <v>100</v>
       </c>
       <c r="L62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>200</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2400</v>
-      </c>
-      <c r="E66" s="3">
-        <v>2700</v>
       </c>
       <c r="F66" s="3">
         <v>2700</v>
       </c>
       <c r="G66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H66" s="3">
         <v>3400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>4400</v>
       </c>
       <c r="I66" s="3">
         <v>4400</v>
       </c>
       <c r="J66" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K66" s="3">
         <v>4600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3800</v>
-      </c>
-      <c r="N66" s="3">
-        <v>3700</v>
       </c>
       <c r="O66" s="3">
         <v>3700</v>
       </c>
       <c r="P66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Q66" s="3">
         <v>3900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4914,10 +5082,13 @@
         <v>0</v>
       </c>
       <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-56400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-55500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-55000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-54300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-53700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-52900</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-52200</v>
       </c>
       <c r="J72" s="3">
         <v>-52200</v>
       </c>
       <c r="K72" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="L72" s="3">
         <v>-51900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-51600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-51000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-50600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-50200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-49600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-49200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-48600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-48100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-47600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-47300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-46700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-46200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-45900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-45600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-45100</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>600</v>
+        <v>-400</v>
       </c>
       <c r="E76" s="3">
-        <v>-1100</v>
+        <v>-600</v>
       </c>
       <c r="F76" s="3">
         <v>-1100</v>
       </c>
       <c r="G76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H76" s="3">
         <v>-1600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3400</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-2800</v>
       </c>
       <c r="N76" s="3">
         <v>-2800</v>
       </c>
       <c r="O76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="P76" s="3">
         <v>-2700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-900</v>
       </c>
       <c r="E81" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F81" s="3">
         <v>-600</v>
       </c>
       <c r="G81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>-300</v>
       </c>
       <c r="L81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1700</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-500</v>
       </c>
       <c r="S81" s="3">
         <v>-500</v>
       </c>
       <c r="T81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5648,10 +5847,10 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -5660,10 +5859,10 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,55 +6273,58 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
@@ -6116,7 +6333,7 @@
         <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
         <v>-200</v>
@@ -6131,10 +6348,13 @@
         <v>-200</v>
       </c>
       <c r="Z89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6172,8 +6393,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -6181,8 +6402,8 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -6211,14 +6432,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -6232,11 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-      <c r="Z91" s="3" t="s">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,29 +6610,32 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>700</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-900</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,94 +7024,100 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="E100" s="3">
         <v>600</v>
       </c>
       <c r="F100" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G100" s="3">
         <v>400</v>
       </c>
       <c r="H100" s="3">
+        <v>400</v>
+      </c>
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
-      </c>
-      <c r="K100" s="3">
-        <v>300</v>
       </c>
       <c r="L100" s="3">
         <v>300</v>
       </c>
       <c r="M100" s="3">
+        <v>300</v>
+      </c>
+      <c r="N100" s="3">
         <v>900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
         <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3">
-        <v>100</v>
-      </c>
       <c r="X100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y100" s="3">
         <v>200</v>
       </c>
       <c r="Z100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -6882,10 +7131,10 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -6927,15 +7176,18 @@
         <v>0</v>
       </c>
       <c r="Z101" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -6944,11 +7196,11 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -6956,43 +7208,43 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
         <v>100</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
         <v>-100</v>
       </c>
       <c r="V102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
         <v>0</v>
@@ -7001,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>
